--- a/src/analysis_examples/circadb/results_lomb/cosinor_10410641_lrrc14b_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10410641_lrrc14b_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.23749077170375293, 0.36919562379137844]</t>
+          <t>[0.23724081741925718, 0.3694455780758742]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.088279270675343e-09</v>
+        <v>4.364293149095033e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>4.088279270675343e-09</v>
+        <v>4.364293149095033e-09</v>
       </c>
       <c r="O2" t="n">
         <v>0.4339737599553466</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[0.20755266780473125, 0.6603948521059619]</t>
+          <t>[0.22013161736865428, 0.6478159025420389]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.000671930558309608</v>
+        <v>0.0003835940229934831</v>
       </c>
       <c r="R2" t="n">
-        <v>0.000671930558309608</v>
+        <v>0.0003835940229934831</v>
       </c>
       <c r="S2" t="n">
         <v>0.4180502409060281</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3814071142741745, 0.4546933675378817]</t>
+          <t>[0.3814171051716337, 0.4546833766404225]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>25.0048048048058</v>
       </c>
       <c r="X2" t="n">
-        <v>24.03687687687784</v>
+        <v>24.09065065065161</v>
       </c>
       <c r="Y2" t="n">
-        <v>25.97273273273377</v>
+        <v>25.91895895895999</v>
       </c>
     </row>
   </sheetData>
